--- a/ModifyChuFang.xlsx
+++ b/ModifyChuFang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="364">
   <si>
     <t>病人ID</t>
   </si>
@@ -164,6 +164,48 @@
     <t>Prescription-117</t>
   </si>
   <si>
+    <t>2021-02-07 15:52:25</t>
+  </si>
+  <si>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>dssadsa</t>
+  </si>
+  <si>
+    <t>dsadsad</t>
+  </si>
+  <si>
+    <t>adsadsadsa</t>
+  </si>
+  <si>
+    <t>rrere</t>
+  </si>
+  <si>
+    <t>Disease-54</t>
+  </si>
+  <si>
+    <t>Prescription-113</t>
+  </si>
+  <si>
+    <t>药丸</t>
+  </si>
+  <si>
+    <t>安神剂</t>
+  </si>
+  <si>
+    <t>ytyt</t>
+  </si>
+  <si>
+    <t>Prescription-114</t>
+  </si>
+  <si>
     <t>药水</t>
   </si>
   <si>
@@ -171,51 +213,6 @@
   </si>
   <si>
     <t>rwa</t>
-  </si>
-  <si>
-    <t>Prescription-119</t>
-  </si>
-  <si>
-    <t>2021-02-07 15:52:25</t>
-  </si>
-  <si>
-    <t>adas</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>dssadsa</t>
-  </si>
-  <si>
-    <t>dsadsad</t>
-  </si>
-  <si>
-    <t>adsadsadsa</t>
-  </si>
-  <si>
-    <t>rrere</t>
-  </si>
-  <si>
-    <t>Disease-54</t>
-  </si>
-  <si>
-    <t>Prescription-113</t>
-  </si>
-  <si>
-    <t>药丸</t>
-  </si>
-  <si>
-    <t>安神剂</t>
-  </si>
-  <si>
-    <t>ytyt</t>
-  </si>
-  <si>
-    <t>Prescription-114</t>
   </si>
   <si>
     <t>Prescription-115</t>
@@ -1151,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1254,7 +1251,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1420,73 +1417,73 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="U4" t="n">
-        <v>231.0</v>
+        <v>3.0</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>930.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="5">
@@ -1503,61 +1500,61 @@
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I5" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K5" t="n">
-        <v>968.0</v>
+        <v>1110.0</v>
       </c>
       <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
         <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" t="s">
-        <v>60</v>
       </c>
       <c r="U5" t="n">
         <v>3.0</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
         <v>63</v>
@@ -1569,7 +1566,7 @@
         <v>45.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>941.0</v>
+        <v>6560.0</v>
       </c>
     </row>
     <row r="6">
@@ -1586,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
@@ -1601,46 +1598,46 @@
         <v>10.0</v>
       </c>
       <c r="J6" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K6" t="n">
-        <v>1110.0</v>
+        <v>50.0</v>
       </c>
       <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" t="s">
-        <v>60</v>
       </c>
       <c r="U6" t="n">
         <v>3.0</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
         <v>67</v>
@@ -1652,107 +1649,107 @@
         <v>45.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>6560.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="K7" t="n">
-        <v>50.0</v>
+        <v>999.0</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="U7" t="n">
         <v>3.0</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>940.0</v>
+        <v>6569.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1767,34 +1764,34 @@
         <v>9.0</v>
       </c>
       <c r="J8" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>999.0</v>
+        <v>45.0</v>
       </c>
       <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>74</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
-      </c>
-      <c r="R8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s">
-        <v>77</v>
       </c>
       <c r="T8" t="s">
         <v>42</v>
@@ -1803,10 +1800,10 @@
         <v>3.0</v>
       </c>
       <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
         <v>78</v>
-      </c>
-      <c r="W8" t="s">
-        <v>79</v>
       </c>
       <c r="X8" t="s">
         <v>80</v>
@@ -1818,164 +1815,164 @@
         <v>44.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>6569.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I9" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
         <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>45.0</v>
+        <v>5.0</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="U9" t="n">
         <v>3.0</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>949.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.0</v>
+        <v>444.0</v>
       </c>
       <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
         <v>86</v>
       </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>87</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>88</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>90</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>91</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>92</v>
-      </c>
-      <c r="T10" t="s">
-        <v>93</v>
       </c>
       <c r="U10" t="n">
         <v>3.0</v>
       </c>
       <c r="V10" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" t="s">
         <v>94</v>
       </c>
-      <c r="W10" t="s">
-        <v>95</v>
-      </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
@@ -1984,164 +1981,164 @@
         <v>43.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>950.0</v>
+        <v>6573.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.0</v>
       </c>
-      <c r="J11" t="n">
-        <v>111.0</v>
-      </c>
       <c r="K11" t="n">
-        <v>444.0</v>
+        <v>40.0</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="U11" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="V11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="W11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>6573.0</v>
+        <v>961.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I12" t="n">
         <v>10.0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>111.0</v>
       </c>
       <c r="K12" t="n">
-        <v>40.0</v>
+        <v>1110.0</v>
       </c>
       <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" t="s">
         <v>99</v>
       </c>
-      <c r="M12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>100</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>101</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>102</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>103</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>104</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
-      </c>
-      <c r="T12" t="s">
-        <v>106</v>
       </c>
       <c r="U12" t="n">
         <v>34.0</v>
       </c>
       <c r="V12" t="s">
+        <v>106</v>
+      </c>
+      <c r="W12" t="s">
         <v>107</v>
       </c>
-      <c r="W12" t="s">
-        <v>108</v>
-      </c>
       <c r="X12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="n">
         <v>0.0</v>
@@ -2150,21 +2147,21 @@
         <v>42.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>961.0</v>
+        <v>6583.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -2182,46 +2179,46 @@
         <v>10.0</v>
       </c>
       <c r="J13" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1110.0</v>
+        <v>50.0</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
         <v>100</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>101</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>103</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>104</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>105</v>
-      </c>
-      <c r="T13" t="s">
-        <v>106</v>
       </c>
       <c r="U13" t="n">
         <v>34.0</v>
       </c>
       <c r="V13" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" t="s">
         <v>107</v>
-      </c>
-      <c r="W13" t="s">
-        <v>108</v>
       </c>
       <c r="X13" t="s">
         <v>111</v>
@@ -2233,90 +2230,90 @@
         <v>42.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>6583.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="J14" t="n">
         <v>5.0</v>
       </c>
       <c r="K14" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="L14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" t="s">
-        <v>105</v>
-      </c>
-      <c r="T14" t="s">
-        <v>106</v>
-      </c>
       <c r="U14" t="n">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="W14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>960.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="15">
@@ -2336,58 +2333,58 @@
         <v>2.0</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I15" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K15" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" t="s">
         <v>113</v>
       </c>
-      <c r="M15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" t="s">
-        <v>114</v>
-      </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
       </c>
       <c r="Q15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" t="s">
         <v>115</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>116</v>
       </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U15" t="n">
         <v>43.0</v>
       </c>
       <c r="V15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" t="s">
         <v>118</v>
-      </c>
-      <c r="W15" t="s">
-        <v>119</v>
       </c>
       <c r="X15" t="s">
         <v>120</v>
@@ -2399,7 +2396,7 @@
         <v>41.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>966.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="16">
@@ -2416,61 +2413,61 @@
         <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I16" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K16" t="n">
-        <v>16.0</v>
+        <v>616.0</v>
       </c>
       <c r="L16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" t="s">
         <v>113</v>
       </c>
-      <c r="M16" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" t="s">
-        <v>114</v>
-      </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
       </c>
       <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" t="s">
         <v>115</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>116</v>
       </c>
-      <c r="S16" t="s">
-        <v>117</v>
-      </c>
       <c r="T16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U16" t="n">
         <v>43.0</v>
       </c>
       <c r="V16" t="s">
+        <v>117</v>
+      </c>
+      <c r="W16" t="s">
         <v>118</v>
-      </c>
-      <c r="W16" t="s">
-        <v>119</v>
       </c>
       <c r="X16" t="s">
         <v>121</v>
@@ -2482,149 +2479,149 @@
         <v>41.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>965.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.0</v>
-      </c>
       <c r="J17" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K17" t="n">
-        <v>616.0</v>
+        <v>111.0</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
         <v>115</v>
       </c>
       <c r="R17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="S17" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="U17" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="V17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="W17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="X17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>958.0</v>
+        <v>6584.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" t="s">
         <v>123</v>
       </c>
-      <c r="M18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>116</v>
-      </c>
-      <c r="R18" t="s">
-        <v>124</v>
-      </c>
       <c r="S18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T18" t="s">
         <v>37</v>
@@ -2633,10 +2630,10 @@
         <v>42.0</v>
       </c>
       <c r="V18" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" t="s">
         <v>125</v>
-      </c>
-      <c r="W18" t="s">
-        <v>126</v>
       </c>
       <c r="X18" t="s">
         <v>127</v>
@@ -2648,66 +2645,66 @@
         <v>40.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>6584.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" t="s">
         <v>123</v>
       </c>
-      <c r="M19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
-        <v>124</v>
-      </c>
       <c r="S19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T19" t="s">
         <v>37</v>
@@ -2716,13 +2713,13 @@
         <v>42.0</v>
       </c>
       <c r="V19" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" t="s">
         <v>125</v>
       </c>
-      <c r="W19" t="s">
-        <v>126</v>
-      </c>
       <c r="X19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
@@ -2731,164 +2728,164 @@
         <v>40.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>966.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="J20" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
       <c r="K20" t="n">
-        <v>88.0</v>
+        <v>40.0</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="R20" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="U20" t="n">
-        <v>42.0</v>
+        <v>2.0</v>
       </c>
       <c r="V20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="W20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Y20" t="n">
         <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>959.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I21" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K21" t="n">
-        <v>40.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L21" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" t="s">
         <v>131</v>
       </c>
-      <c r="M21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" t="s">
         <v>132</v>
       </c>
-      <c r="O21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>101</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>133</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>134</v>
-      </c>
-      <c r="T21" t="s">
-        <v>135</v>
       </c>
       <c r="U21" t="n">
         <v>2.0</v>
       </c>
       <c r="V21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0</v>
@@ -2897,134 +2894,134 @@
         <v>39.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>976.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I22" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.0</v>
+        <v>5.0</v>
       </c>
       <c r="K22" t="n">
-        <v>1320.0</v>
+        <v>20.0</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="R22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S22" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="U22" t="n">
-        <v>2.0</v>
+        <v>34.0</v>
       </c>
       <c r="V22" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="W22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="X22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>974.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.0</v>
+        <v>88.0</v>
       </c>
       <c r="K23" t="n">
-        <v>20.0</v>
+        <v>528.0</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
@@ -3033,28 +3030,28 @@
         <v>42</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U23" t="n">
         <v>34.0</v>
       </c>
       <c r="V23" t="s">
+        <v>141</v>
+      </c>
+      <c r="W23" t="s">
         <v>142</v>
       </c>
-      <c r="W23" t="s">
-        <v>143</v>
-      </c>
       <c r="X23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
@@ -3068,159 +3065,159 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I24" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
       <c r="K24" t="n">
-        <v>528.0</v>
+        <v>28.0</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="R24" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="T24" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="U24" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="V24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="W24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="X24" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>980.0</v>
+        <v>987.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
       <c r="E25" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I25" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.0</v>
+        <v>111.0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.0</v>
+        <v>1665.0</v>
       </c>
       <c r="L25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" t="s">
         <v>147</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" t="s">
         <v>147</v>
       </c>
-      <c r="N25" t="s">
-        <v>148</v>
-      </c>
-      <c r="O25" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>151</v>
       </c>
-      <c r="R25" t="s">
-        <v>148</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>152</v>
-      </c>
-      <c r="T25" t="s">
-        <v>153</v>
       </c>
       <c r="U25" t="n">
         <v>4.0</v>
       </c>
       <c r="V25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
@@ -3229,81 +3226,81 @@
         <v>37.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>987.0</v>
+        <v>6615.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I26" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="J26" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="K26" t="n">
-        <v>1665.0</v>
+        <v>264.0</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O26" t="s">
         <v>148</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>149</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>150</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
+        <v>147</v>
+      </c>
+      <c r="S26" t="s">
         <v>151</v>
       </c>
-      <c r="R26" t="s">
-        <v>148</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>152</v>
-      </c>
-      <c r="T26" t="s">
-        <v>153</v>
       </c>
       <c r="U26" t="n">
         <v>4.0</v>
       </c>
       <c r="V26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
@@ -3312,90 +3309,90 @@
         <v>37.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>6615.0</v>
+        <v>983.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.0</v>
+        <v>4.0</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="R27" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="S27" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="U27" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="V27" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="W27" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="X27" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Y27" t="n">
         <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>983.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="28">
@@ -3415,61 +3412,61 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="L28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" t="s">
         <v>160</v>
       </c>
-      <c r="M28" t="s">
-        <v>160</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
         <v>161</v>
       </c>
-      <c r="O28" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>162</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>163</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>164</v>
       </c>
-      <c r="S28" t="s">
-        <v>165</v>
-      </c>
       <c r="T28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U28" t="n">
         <v>33.0</v>
       </c>
       <c r="V28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
@@ -3478,7 +3475,7 @@
         <v>36.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>988.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="29">
@@ -3495,61 +3492,61 @@
         <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K29" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" t="s">
         <v>161</v>
       </c>
-      <c r="O29" t="s">
-        <v>101</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>162</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>163</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>164</v>
       </c>
-      <c r="S29" t="s">
-        <v>165</v>
-      </c>
       <c r="T29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U29" t="n">
         <v>33.0</v>
       </c>
       <c r="V29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X29" t="s">
         <v>169</v>
@@ -3561,164 +3558,164 @@
         <v>36.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>984.0</v>
+        <v>6616.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="L30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N30" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q30" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="R30" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="S30" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="T30" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="U30" t="n">
-        <v>33.0</v>
+        <v>332.0</v>
       </c>
       <c r="V30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="X30" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>6616.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
         <v>171</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>172</v>
-      </c>
-      <c r="C31" t="s">
-        <v>173</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="L31" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" t="s">
         <v>174</v>
       </c>
-      <c r="M31" t="s">
-        <v>174</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>175</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>176</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31" t="s">
         <v>177</v>
       </c>
-      <c r="Q31" t="s">
-        <v>91</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>178</v>
       </c>
-      <c r="S31" t="s">
-        <v>179</v>
-      </c>
       <c r="T31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U31" t="n">
         <v>332.0</v>
       </c>
       <c r="V31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y31" t="n">
         <v>0.0</v>
@@ -3727,78 +3724,78 @@
         <v>35.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>989.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
         <v>171</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>172</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K32" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N32" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" t="s">
         <v>175</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>176</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" t="s">
-        <v>91</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>178</v>
       </c>
-      <c r="S32" t="s">
-        <v>179</v>
-      </c>
       <c r="T32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U32" t="n">
         <v>332.0</v>
       </c>
       <c r="V32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X32" t="s">
         <v>183</v>
@@ -3810,134 +3807,134 @@
         <v>35.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>985.0</v>
+        <v>6617.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N33" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O33" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="R33" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U33" t="n">
-        <v>332.0</v>
+        <v>4.0</v>
       </c>
       <c r="V33" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="W33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="X33" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>6617.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
       <c r="E34" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.0</v>
+        <v>440.0</v>
       </c>
       <c r="L34" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" t="s">
+        <v>189</v>
+      </c>
+      <c r="N34" t="s">
         <v>185</v>
-      </c>
-      <c r="M34" t="s">
-        <v>185</v>
-      </c>
-      <c r="N34" t="s">
-        <v>186</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
@@ -3946,28 +3943,28 @@
         <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R34" t="s">
         <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U34" t="n">
         <v>4.0</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y34" t="n">
         <v>0.0</v>
@@ -3981,156 +3978,156 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>5.0</v>
       </c>
-      <c r="J35" t="n">
-        <v>88.0</v>
-      </c>
       <c r="K35" t="n">
-        <v>440.0</v>
+        <v>50.0</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="Q35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R35" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="T35" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="U35" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="W35" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="X35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="n">
         <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>990.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
       <c r="E36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I36" t="n">
         <v>10.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K36" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="L36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" t="s">
         <v>192</v>
       </c>
-      <c r="M36" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" t="s">
-        <v>193</v>
-      </c>
       <c r="O36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U36" t="n">
         <v>32.0</v>
       </c>
       <c r="V36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X36" t="s">
         <v>195</v>
@@ -4147,76 +4144,76 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I37" t="n">
         <v>10.0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.0</v>
+        <v>88.0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.0</v>
+        <v>880.0</v>
       </c>
       <c r="L37" t="s">
+        <v>196</v>
+      </c>
+      <c r="M37" t="s">
+        <v>196</v>
+      </c>
+      <c r="N37" t="s">
         <v>192</v>
       </c>
-      <c r="M37" t="s">
-        <v>192</v>
-      </c>
-      <c r="N37" t="s">
-        <v>193</v>
-      </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U37" t="n">
         <v>32.0</v>
       </c>
       <c r="V37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y37" t="n">
         <v>0.0</v>
@@ -4230,85 +4227,85 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="I38" t="n">
         <v>10.0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.0</v>
+        <v>3.0</v>
       </c>
       <c r="K38" t="n">
-        <v>880.0</v>
+        <v>30.0</v>
       </c>
       <c r="L38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="Q38" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="R38" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="T38" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="U38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>200</v>
+      </c>
+      <c r="W38" t="s">
+        <v>202</v>
+      </c>
+      <c r="X38" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="n">
         <v>32.0</v>
       </c>
-      <c r="V38" t="s">
-        <v>103</v>
-      </c>
-      <c r="W38" t="s">
-        <v>194</v>
-      </c>
-      <c r="X38" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>33.0</v>
-      </c>
       <c r="AA38" t="n">
-        <v>1000.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -4325,64 +4322,64 @@
         <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="I39" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.0</v>
+        <v>88.0</v>
       </c>
       <c r="K39" t="n">
-        <v>30.0</v>
+        <v>792.0</v>
       </c>
       <c r="L39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" t="s">
         <v>200</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O39" t="s">
+        <v>201</v>
+      </c>
+      <c r="P39" t="s">
         <v>200</v>
       </c>
-      <c r="N39" t="s">
-        <v>201</v>
-      </c>
-      <c r="O39" t="s">
-        <v>202</v>
-      </c>
-      <c r="P39" t="s">
-        <v>201</v>
-      </c>
       <c r="Q39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U39" t="n">
         <v>3.0</v>
       </c>
       <c r="V39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y39" t="n">
         <v>0.0</v>
@@ -4391,7 +4388,7 @@
         <v>32.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>32.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="40">
@@ -4420,61 +4417,61 @@
         <v>47</v>
       </c>
       <c r="I40" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="J40" t="n">
         <v>88.0</v>
       </c>
       <c r="K40" t="n">
-        <v>792.0</v>
+        <v>440.0</v>
       </c>
       <c r="L40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="O40" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="Q40" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="R40" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="S40" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="T40" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="U40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V40" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="W40" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="X40" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Y40" t="n">
         <v>0.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="41">
@@ -4503,61 +4500,61 @@
         <v>47</v>
       </c>
       <c r="I41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
         <v>88.0</v>
       </c>
       <c r="K41" t="n">
-        <v>440.0</v>
+        <v>88.0</v>
       </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="N41" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="O41" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="Q41" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="R41" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="S41" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="T41" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="U41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V41" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="W41" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="X41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Y41" t="n">
         <v>0.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="42">
@@ -4574,61 +4571,61 @@
         <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K42" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L42" t="s">
+        <v>214</v>
+      </c>
+      <c r="M42" t="s">
+        <v>214</v>
+      </c>
+      <c r="N42" t="s">
         <v>215</v>
       </c>
-      <c r="M42" t="s">
-        <v>215</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>216</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>217</v>
       </c>
-      <c r="P42" t="s">
-        <v>218</v>
-      </c>
       <c r="Q42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U42" t="n">
         <v>3.0</v>
       </c>
       <c r="V42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X42" t="s">
         <v>220</v>
@@ -4640,7 +4637,7 @@
         <v>30.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>75.0</v>
+        <v>6652.0</v>
       </c>
     </row>
     <row r="43">
@@ -4657,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F43" t="s">
         <v>64</v>
@@ -4672,58 +4669,58 @@
         <v>1.0</v>
       </c>
       <c r="J43" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="L43" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M43" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s">
         <v>216</v>
       </c>
       <c r="O43" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="Q43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R43" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="S43" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="T43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U43" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="V43" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="W43" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="X43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y43" t="n">
         <v>0.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>6652.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="44">
@@ -4740,64 +4737,64 @@
         <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.0</v>
+        <v>88.0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.0</v>
+        <v>88.0</v>
       </c>
       <c r="L44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M44" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" t="s">
+        <v>216</v>
+      </c>
+      <c r="O44" t="s">
         <v>222</v>
       </c>
-      <c r="M44" t="s">
-        <v>222</v>
-      </c>
-      <c r="N44" t="s">
-        <v>217</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>216</v>
+      </c>
+      <c r="R44" t="s">
         <v>223</v>
       </c>
-      <c r="P44" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>217</v>
-      </c>
-      <c r="R44" t="s">
-        <v>224</v>
-      </c>
       <c r="S44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U44" t="n">
         <v>23.0</v>
       </c>
       <c r="V44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y44" t="n">
         <v>0.0</v>
@@ -4806,7 +4803,7 @@
         <v>29.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>97.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="45">
@@ -4823,61 +4820,61 @@
         <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K45" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O45" t="s">
+        <v>222</v>
+      </c>
+      <c r="P45" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>216</v>
+      </c>
+      <c r="R45" t="s">
         <v>223</v>
       </c>
-      <c r="P45" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>217</v>
-      </c>
-      <c r="R45" t="s">
-        <v>224</v>
-      </c>
       <c r="S45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U45" t="n">
         <v>23.0</v>
       </c>
       <c r="V45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X45" t="s">
         <v>228</v>
@@ -4889,7 +4886,7 @@
         <v>29.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>76.0</v>
+        <v>6653.0</v>
       </c>
     </row>
     <row r="46">
@@ -4906,61 +4903,61 @@
         <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="L46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O46" t="s">
+        <v>222</v>
+      </c>
+      <c r="P46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>216</v>
+      </c>
+      <c r="R46" t="s">
         <v>223</v>
       </c>
-      <c r="P46" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>217</v>
-      </c>
-      <c r="R46" t="s">
-        <v>224</v>
-      </c>
       <c r="S46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U46" t="n">
         <v>23.0</v>
       </c>
       <c r="V46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X46" t="s">
         <v>229</v>
@@ -4972,7 +4969,7 @@
         <v>29.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>6653.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -4992,70 +4989,70 @@
         <v>3.0</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L47" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N47" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="O47" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="P47" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="Q47" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="R47" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S47" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="T47" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="U47" t="n">
         <v>23.0</v>
       </c>
       <c r="V47" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="W47" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="X47" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Y47" t="n">
         <v>0.0</v>
       </c>
       <c r="Z47" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="48">
@@ -5072,64 +5069,64 @@
         <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.0</v>
+        <v>88.0</v>
       </c>
       <c r="K48" t="n">
-        <v>5.0</v>
+        <v>88.0</v>
       </c>
       <c r="L48" t="s">
+        <v>237</v>
+      </c>
+      <c r="M48" t="s">
+        <v>237</v>
+      </c>
+      <c r="N48" t="s">
         <v>231</v>
       </c>
-      <c r="M48" t="s">
-        <v>231</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>232</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>233</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>234</v>
       </c>
-      <c r="Q48" t="s">
-        <v>235</v>
-      </c>
       <c r="R48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U48" t="n">
         <v>23.0</v>
       </c>
       <c r="V48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y48" t="n">
         <v>0.0</v>
@@ -5138,7 +5135,7 @@
         <v>28.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>98.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="49">
@@ -5155,61 +5152,61 @@
         <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K49" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N49" t="s">
+        <v>231</v>
+      </c>
+      <c r="O49" t="s">
         <v>232</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>233</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>234</v>
       </c>
-      <c r="Q49" t="s">
-        <v>235</v>
-      </c>
       <c r="R49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U49" t="n">
         <v>23.0</v>
       </c>
       <c r="V49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X49" t="s">
         <v>239</v>
@@ -5221,7 +5218,7 @@
         <v>28.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>77.0</v>
+        <v>6654.0</v>
       </c>
     </row>
     <row r="50">
@@ -5253,58 +5250,58 @@
         <v>1.0</v>
       </c>
       <c r="J50" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K50" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N50" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="O50" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="Q50" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="R50" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="S50" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="T50" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="U50" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="V50" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="W50" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="X50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y50" t="n">
         <v>0.0</v>
       </c>
       <c r="Z50" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA50" t="n">
-        <v>6654.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="51">
@@ -5321,64 +5318,64 @@
         <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="K51" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="L51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U51" t="n">
         <v>3.0</v>
       </c>
       <c r="V51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y51" t="n">
         <v>0.0</v>
@@ -5387,7 +5384,7 @@
         <v>27.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>99.0</v>
+        <v>6655.0</v>
       </c>
     </row>
     <row r="52">
@@ -5404,7 +5401,7 @@
         <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F52" t="s">
         <v>64</v>
@@ -5419,58 +5416,58 @@
         <v>1.0</v>
       </c>
       <c r="J52" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="K52" t="n">
-        <v>111.0</v>
+        <v>5.0</v>
       </c>
       <c r="L52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N52" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="P52" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q52" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="R52" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S52" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="T52" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="U52" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V52" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="W52" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="X52" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y52" t="n">
         <v>0.0</v>
       </c>
       <c r="Z52" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>6655.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="53">
@@ -5487,64 +5484,64 @@
         <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I53" t="n">
         <v>1.0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="K53" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="L53" t="s">
+        <v>252</v>
+      </c>
+      <c r="M53" t="s">
+        <v>252</v>
+      </c>
+      <c r="N53" t="s">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
         <v>246</v>
       </c>
-      <c r="M53" t="s">
-        <v>246</v>
-      </c>
-      <c r="N53" t="s">
-        <v>101</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q53" t="s">
         <v>247</v>
       </c>
-      <c r="P53" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" t="s">
+        <v>209</v>
+      </c>
+      <c r="T53" t="s">
         <v>248</v>
-      </c>
-      <c r="R53" t="s">
-        <v>103</v>
-      </c>
-      <c r="S53" t="s">
-        <v>210</v>
-      </c>
-      <c r="T53" t="s">
-        <v>249</v>
       </c>
       <c r="U53" t="n">
         <v>2.0</v>
       </c>
       <c r="V53" t="s">
+        <v>249</v>
+      </c>
+      <c r="W53" t="s">
         <v>250</v>
       </c>
-      <c r="W53" t="s">
-        <v>251</v>
-      </c>
       <c r="X53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y53" t="n">
         <v>0.0</v>
@@ -5553,7 +5550,7 @@
         <v>26.0</v>
       </c>
       <c r="AA53" t="n">
-        <v>100.0</v>
+        <v>6656.0</v>
       </c>
     </row>
     <row r="54">
@@ -5573,70 +5570,70 @@
         <v>1.0</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
       </c>
       <c r="J54" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="K54" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="L54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N54" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O54" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="P54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q54" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R54" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="S54" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="T54" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="U54" t="n">
-        <v>2.0</v>
+        <v>34.0</v>
       </c>
       <c r="V54" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="W54" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="X54" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y54" t="n">
         <v>0.0</v>
       </c>
       <c r="Z54" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA54" t="n">
-        <v>6656.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="55">
@@ -5653,43 +5650,43 @@
         <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I55" t="n">
         <v>1.0</v>
       </c>
       <c r="J55" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K55" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="L55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N55" t="s">
         <v>42</v>
       </c>
       <c r="O55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R55" t="s">
         <v>42</v>
@@ -5698,16 +5695,16 @@
         <v>42</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U55" t="n">
         <v>34.0</v>
       </c>
       <c r="V55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X55" t="s">
         <v>258</v>
@@ -5719,7 +5716,7 @@
         <v>25.0</v>
       </c>
       <c r="AA55" t="n">
-        <v>78.0</v>
+        <v>6657.0</v>
       </c>
     </row>
     <row r="56">
@@ -5736,73 +5733,73 @@
         <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
       </c>
       <c r="J56" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="K56" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="L56" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M56" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N56" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="O56" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="P56" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="Q56" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="R56" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="S56" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="U56" t="n">
-        <v>34.0</v>
+        <v>3.0</v>
       </c>
       <c r="V56" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="W56" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="X56" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="n">
         <v>0.0</v>
       </c>
       <c r="Z56" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA56" t="n">
-        <v>6657.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="57">
@@ -5819,7 +5816,7 @@
         <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F57" t="s">
         <v>45</v>
@@ -5828,7 +5825,7 @@
         <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="I57" t="n">
         <v>1.0</v>
@@ -5840,43 +5837,43 @@
         <v>88.0</v>
       </c>
       <c r="L57" t="s">
+        <v>259</v>
+      </c>
+      <c r="M57" t="s">
+        <v>259</v>
+      </c>
+      <c r="N57" t="s">
         <v>260</v>
       </c>
-      <c r="M57" t="s">
+      <c r="O57" t="s">
+        <v>261</v>
+      </c>
+      <c r="P57" t="s">
         <v>260</v>
       </c>
-      <c r="N57" t="s">
-        <v>261</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>262</v>
       </c>
-      <c r="P57" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>263</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
+        <v>200</v>
+      </c>
+      <c r="T57" t="s">
         <v>264</v>
-      </c>
-      <c r="S57" t="s">
-        <v>201</v>
-      </c>
-      <c r="T57" t="s">
-        <v>265</v>
       </c>
       <c r="U57" t="n">
         <v>3.0</v>
       </c>
       <c r="V57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y57" t="n">
         <v>0.0</v>
@@ -5890,19 +5887,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" t="s">
         <v>45</v>
@@ -5911,7 +5908,7 @@
         <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="I58" t="n">
         <v>1.0</v>
@@ -5923,123 +5920,123 @@
         <v>88.0</v>
       </c>
       <c r="L58" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M58" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N58" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O58" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q58" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="R58" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="S58" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="T58" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="U58" t="n">
         <v>3.0</v>
       </c>
       <c r="V58" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="W58" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="X58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Y58" t="n">
         <v>0.0</v>
       </c>
       <c r="Z58" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA58" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J59" t="n">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="K59" t="n">
-        <v>88.0</v>
+        <v>222.0</v>
       </c>
       <c r="L59" t="s">
+        <v>269</v>
+      </c>
+      <c r="M59" t="s">
+        <v>269</v>
+      </c>
+      <c r="N59" t="s">
         <v>270</v>
       </c>
-      <c r="M59" t="s">
-        <v>270</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>271</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>272</v>
       </c>
-      <c r="P59" t="s">
-        <v>273</v>
-      </c>
       <c r="Q59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U59" t="n">
         <v>3.0</v>
       </c>
       <c r="V59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X59" t="s">
         <v>275</v>
@@ -6051,164 +6048,164 @@
         <v>23.0</v>
       </c>
       <c r="AA59" t="n">
-        <v>80.0</v>
+        <v>6659.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E60" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I60" t="n">
         <v>2.0</v>
       </c>
       <c r="J60" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="K60" t="n">
-        <v>222.0</v>
+        <v>176.0</v>
       </c>
       <c r="L60" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M60" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N60" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="O60" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="Q60" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="R60" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S60" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="T60" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="U60" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="V60" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="W60" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="X60" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y60" t="n">
         <v>0.0</v>
       </c>
       <c r="Z60" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA60" t="n">
-        <v>6659.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
         <v>82</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>84</v>
       </c>
-      <c r="D61" t="s">
-        <v>85</v>
-      </c>
       <c r="E61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>280</v>
+      </c>
+      <c r="H61" t="s">
+        <v>281</v>
+      </c>
+      <c r="I61" t="n">
         <v>1.0</v>
       </c>
-      <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.0</v>
-      </c>
       <c r="J61" t="n">
-        <v>88.0</v>
+        <v>3.0</v>
       </c>
       <c r="K61" t="n">
-        <v>176.0</v>
+        <v>3.0</v>
       </c>
       <c r="L61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>276</v>
+      </c>
+      <c r="N61" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>162</v>
+      </c>
+      <c r="R61" t="s">
         <v>277</v>
       </c>
-      <c r="M61" t="s">
-        <v>277</v>
-      </c>
-      <c r="N61" t="s">
-        <v>57</v>
-      </c>
-      <c r="O61" t="s">
-        <v>101</v>
-      </c>
-      <c r="P61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>163</v>
-      </c>
-      <c r="R61" t="s">
-        <v>278</v>
-      </c>
       <c r="S61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U61" t="n">
         <v>32.0</v>
       </c>
       <c r="V61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="n">
         <v>0.0</v>
@@ -6217,164 +6214,164 @@
         <v>22.0</v>
       </c>
       <c r="AA61" t="n">
-        <v>82.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="E62" t="n">
         <v>2.0</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J62" t="n">
         <v>3.0</v>
       </c>
       <c r="K62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>288</v>
+      </c>
+      <c r="M62" t="s">
+        <v>288</v>
+      </c>
+      <c r="N62" t="s">
+        <v>249</v>
+      </c>
+      <c r="O62" t="s">
+        <v>149</v>
+      </c>
+      <c r="P62" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>149</v>
+      </c>
+      <c r="R62" t="s">
+        <v>149</v>
+      </c>
+      <c r="S62" t="s">
+        <v>149</v>
+      </c>
+      <c r="T62" t="s">
+        <v>149</v>
+      </c>
+      <c r="U62" t="n">
         <v>3.0</v>
       </c>
-      <c r="L62" t="s">
-        <v>277</v>
-      </c>
-      <c r="M62" t="s">
-        <v>277</v>
-      </c>
-      <c r="N62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O62" t="s">
-        <v>101</v>
-      </c>
-      <c r="P62" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>163</v>
-      </c>
-      <c r="R62" t="s">
-        <v>278</v>
-      </c>
-      <c r="S62" t="s">
-        <v>162</v>
-      </c>
-      <c r="T62" t="s">
-        <v>101</v>
-      </c>
-      <c r="U62" t="n">
-        <v>32.0</v>
-      </c>
       <c r="V62" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="W62" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="X62" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Y62" t="n">
         <v>0.0</v>
       </c>
       <c r="Z62" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" t="s">
         <v>284</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>285</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>286</v>
       </c>
-      <c r="D63" t="s">
-        <v>287</v>
-      </c>
       <c r="E63" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="I63" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.0</v>
+        <v>88.0</v>
       </c>
       <c r="K63" t="n">
-        <v>6.0</v>
+        <v>88.0</v>
       </c>
       <c r="L63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U63" t="n">
         <v>3.0</v>
       </c>
       <c r="V63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y63" t="n">
         <v>0.0</v>
@@ -6383,164 +6380,164 @@
         <v>21.0</v>
       </c>
       <c r="AA63" t="n">
-        <v>3.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" t="s">
         <v>284</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>285</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>286</v>
-      </c>
-      <c r="D64" t="s">
-        <v>287</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I64" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J64" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
       <c r="K64" t="n">
-        <v>88.0</v>
+        <v>8.0</v>
       </c>
       <c r="L64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N64" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="O64" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="Q64" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="R64" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="S64" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="T64" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="U64" t="n">
         <v>3.0</v>
       </c>
       <c r="V64" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="W64" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="X64" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Y64" t="n">
         <v>0.0</v>
       </c>
       <c r="Z64" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA64" t="n">
-        <v>83.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" t="s">
         <v>284</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>285</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>286</v>
       </c>
-      <c r="D65" t="s">
-        <v>287</v>
-      </c>
       <c r="E65" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="I65" t="n">
         <v>2.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K65" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L65" t="s">
+        <v>293</v>
+      </c>
+      <c r="M65" t="s">
+        <v>293</v>
+      </c>
+      <c r="N65" t="s">
+        <v>86</v>
+      </c>
+      <c r="O65" t="s">
+        <v>124</v>
+      </c>
+      <c r="P65" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>86</v>
+      </c>
+      <c r="R65" t="s">
         <v>294</v>
       </c>
-      <c r="M65" t="s">
-        <v>294</v>
-      </c>
-      <c r="N65" t="s">
-        <v>87</v>
-      </c>
-      <c r="O65" t="s">
-        <v>125</v>
-      </c>
-      <c r="P65" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>87</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>295</v>
       </c>
-      <c r="S65" t="s">
-        <v>296</v>
-      </c>
       <c r="T65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U65" t="n">
         <v>3.0</v>
       </c>
       <c r="V65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Y65" t="n">
         <v>0.0</v>
@@ -6549,187 +6546,187 @@
         <v>20.0</v>
       </c>
       <c r="AA65" t="n">
-        <v>4.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
         <v>284</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>285</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>286</v>
       </c>
-      <c r="D66" t="s">
-        <v>287</v>
-      </c>
       <c r="E66" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="H66" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="I66" t="n">
         <v>2.0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.0</v>
+        <v>111.0</v>
       </c>
       <c r="K66" t="n">
-        <v>6.0</v>
+        <v>222.0</v>
       </c>
       <c r="L66" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M66" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="Q66" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="R66" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="S66" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="T66" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="U66" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W66" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="X66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Y66" t="n">
         <v>0.0</v>
       </c>
       <c r="Z66" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA66" t="n">
-        <v>99.0</v>
+        <v>6661.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" t="s">
         <v>284</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>285</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>286</v>
-      </c>
-      <c r="D67" t="s">
-        <v>287</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>304</v>
+      </c>
+      <c r="M67" t="s">
+        <v>304</v>
+      </c>
+      <c r="N67" t="s">
+        <v>124</v>
+      </c>
+      <c r="O67" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>281</v>
+      </c>
+      <c r="R67" t="s">
+        <v>124</v>
+      </c>
+      <c r="S67" t="s">
+        <v>124</v>
+      </c>
+      <c r="T67" t="s">
+        <v>124</v>
+      </c>
+      <c r="U67" t="n">
         <v>2.0</v>
       </c>
-      <c r="J67" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="L67" t="s">
-        <v>302</v>
-      </c>
-      <c r="M67" t="s">
-        <v>302</v>
-      </c>
-      <c r="N67" t="s">
-        <v>87</v>
-      </c>
-      <c r="O67" t="s">
-        <v>125</v>
-      </c>
-      <c r="P67" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>125</v>
-      </c>
-      <c r="R67" t="s">
-        <v>125</v>
-      </c>
-      <c r="S67" t="s">
-        <v>125</v>
-      </c>
-      <c r="T67" t="s">
-        <v>202</v>
-      </c>
-      <c r="U67" t="n">
-        <v>4.0</v>
-      </c>
       <c r="V67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Y67" t="n">
         <v>0.0</v>
       </c>
       <c r="Z67" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA67" t="n">
-        <v>6661.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" t="s">
         <v>284</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>286</v>
-      </c>
-      <c r="D68" t="s">
-        <v>287</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -6744,75 +6741,75 @@
         <v>47</v>
       </c>
       <c r="I68" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="J68" t="n">
         <v>88.0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0</v>
+        <v>528.0</v>
       </c>
       <c r="L68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N68" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="O68" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="P68" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Q68" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="R68" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="S68" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="T68" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="U68" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="V68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="X68" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Y68" t="n">
         <v>0.0</v>
       </c>
       <c r="Z68" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA68" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
         <v>284</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>285</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>286</v>
-      </c>
-      <c r="D69" t="s">
-        <v>287</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -6836,49 +6833,49 @@
         <v>528.0</v>
       </c>
       <c r="L69" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M69" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U69" t="n">
         <v>4.0</v>
       </c>
       <c r="V69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W69" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="X69" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="n">
         <v>0.0</v>
       </c>
       <c r="Z69" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA69" t="n">
         <v>90.0</v>
@@ -6886,16 +6883,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" t="s">
         <v>284</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>285</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>286</v>
-      </c>
-      <c r="D70" t="s">
-        <v>287</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -6919,49 +6916,49 @@
         <v>528.0</v>
       </c>
       <c r="L70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U70" t="n">
         <v>4.0</v>
       </c>
       <c r="V70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W70" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="X70" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y70" t="n">
         <v>0.0</v>
       </c>
       <c r="Z70" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA70" t="n">
         <v>90.0</v>
@@ -6969,16 +6966,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
         <v>284</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>285</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>286</v>
-      </c>
-      <c r="D71" t="s">
-        <v>287</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -6993,132 +6990,132 @@
         <v>47</v>
       </c>
       <c r="I71" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="J71" t="n">
         <v>88.0</v>
       </c>
       <c r="K71" t="n">
-        <v>528.0</v>
+        <v>880.0</v>
       </c>
       <c r="L71" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M71" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N71" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="O71" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="Q71" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="R71" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="S71" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="T71" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="U71" t="n">
-        <v>4.0</v>
+        <v>43.0</v>
       </c>
       <c r="V71" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="W71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="X71" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Y71" t="n">
         <v>0.0</v>
       </c>
       <c r="Z71" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA71" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" t="s">
         <v>284</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>285</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>286</v>
       </c>
-      <c r="D72" t="s">
-        <v>287</v>
-      </c>
       <c r="E72" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="I72" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="J72" t="n">
-        <v>88.0</v>
+        <v>3.0</v>
       </c>
       <c r="K72" t="n">
-        <v>880.0</v>
+        <v>6.0</v>
       </c>
       <c r="L72" t="s">
+        <v>316</v>
+      </c>
+      <c r="M72" t="s">
+        <v>316</v>
+      </c>
+      <c r="N72" t="s">
         <v>317</v>
       </c>
-      <c r="M72" t="s">
-        <v>317</v>
-      </c>
-      <c r="N72" t="s">
-        <v>318</v>
-      </c>
       <c r="O72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U72" t="n">
         <v>43.0</v>
       </c>
       <c r="V72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X72" t="s">
         <v>320</v>
@@ -7130,161 +7127,161 @@
         <v>11.0</v>
       </c>
       <c r="AA72" t="n">
-        <v>100.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="I73" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.0</v>
+        <v>88.0</v>
       </c>
       <c r="K73" t="n">
-        <v>6.0</v>
+        <v>352.0</v>
       </c>
       <c r="L73" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M73" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N73" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="O73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="P73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="Q73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="R73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="S73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="T73" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="U73" t="n">
-        <v>43.0</v>
+        <v>4.0</v>
       </c>
       <c r="V73" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="W73" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="X73" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Y73" t="n">
         <v>0.0</v>
       </c>
       <c r="Z73" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA73" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
         <v>171</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>172</v>
-      </c>
-      <c r="C74" t="s">
-        <v>173</v>
       </c>
       <c r="D74" t="s">
         <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" t="n">
         <v>4.0</v>
       </c>
       <c r="J74" t="n">
-        <v>88.0</v>
+        <v>5.0</v>
       </c>
       <c r="K74" t="n">
-        <v>352.0</v>
+        <v>20.0</v>
       </c>
       <c r="L74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U74" t="n">
         <v>4.0</v>
       </c>
       <c r="V74" t="s">
+        <v>323</v>
+      </c>
+      <c r="W74" t="s">
         <v>324</v>
-      </c>
-      <c r="W74" t="s">
-        <v>325</v>
       </c>
       <c r="X74" t="s">
         <v>326</v>
@@ -7301,159 +7298,159 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E75" t="n">
         <v>2.0</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I75" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J75" t="n">
-        <v>5.0</v>
+        <v>111.0</v>
       </c>
       <c r="K75" t="n">
-        <v>20.0</v>
+        <v>555.0</v>
       </c>
       <c r="L75" t="s">
+        <v>327</v>
+      </c>
+      <c r="M75" t="s">
+        <v>327</v>
+      </c>
+      <c r="N75" t="s">
+        <v>211</v>
+      </c>
+      <c r="O75" t="s">
+        <v>211</v>
+      </c>
+      <c r="P75" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>211</v>
+      </c>
+      <c r="R75" t="s">
+        <v>211</v>
+      </c>
+      <c r="S75" t="s">
         <v>323</v>
       </c>
-      <c r="M75" t="s">
-        <v>323</v>
-      </c>
-      <c r="N75" t="s">
-        <v>212</v>
-      </c>
-      <c r="O75" t="s">
-        <v>212</v>
-      </c>
-      <c r="P75" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>212</v>
-      </c>
-      <c r="R75" t="s">
-        <v>212</v>
-      </c>
-      <c r="S75" t="s">
-        <v>212</v>
-      </c>
       <c r="T75" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="U75" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V75" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="W75" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="X75" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Y75" t="n">
         <v>0.0</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA75" t="n">
-        <v>4.0</v>
+        <v>6666.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
         <v>69</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>70</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>71</v>
       </c>
-      <c r="D76" t="s">
-        <v>72</v>
-      </c>
       <c r="E76" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I76" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J76" t="n">
-        <v>111.0</v>
+        <v>88.0</v>
       </c>
       <c r="K76" t="n">
-        <v>555.0</v>
+        <v>264.0</v>
       </c>
       <c r="L76" t="s">
+        <v>332</v>
+      </c>
+      <c r="M76" t="s">
+        <v>332</v>
+      </c>
+      <c r="N76" t="s">
+        <v>211</v>
+      </c>
+      <c r="O76" t="s">
+        <v>211</v>
+      </c>
+      <c r="P76" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>211</v>
+      </c>
+      <c r="R76" t="s">
+        <v>211</v>
+      </c>
+      <c r="S76" t="s">
+        <v>323</v>
+      </c>
+      <c r="T76" t="s">
         <v>328</v>
-      </c>
-      <c r="M76" t="s">
-        <v>328</v>
-      </c>
-      <c r="N76" t="s">
-        <v>212</v>
-      </c>
-      <c r="O76" t="s">
-        <v>212</v>
-      </c>
-      <c r="P76" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>212</v>
-      </c>
-      <c r="R76" t="s">
-        <v>212</v>
-      </c>
-      <c r="S76" t="s">
-        <v>324</v>
-      </c>
-      <c r="T76" t="s">
-        <v>329</v>
       </c>
       <c r="U76" t="n">
         <v>3.0</v>
       </c>
       <c r="V76" t="s">
+        <v>329</v>
+      </c>
+      <c r="W76" t="s">
         <v>330</v>
       </c>
-      <c r="W76" t="s">
-        <v>331</v>
-      </c>
       <c r="X76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y76" t="n">
         <v>0.0</v>
@@ -7467,16 +7464,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -7485,58 +7482,58 @@
         <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H77" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="I77" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="J77" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
       <c r="K77" t="n">
-        <v>264.0</v>
+        <v>80.0</v>
       </c>
       <c r="L77" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M77" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N77" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="O77" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="Q77" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="R77" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="S77" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="T77" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="U77" t="n">
         <v>3.0</v>
       </c>
       <c r="V77" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="W77" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="X77" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Y77" t="n">
         <v>0.0</v>
@@ -7545,7 +7542,7 @@
         <v>0.0</v>
       </c>
       <c r="AA77" t="n">
-        <v>6666.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -7562,64 +7559,64 @@
         <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F78" t="s">
         <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H78" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I78" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K78" t="n">
-        <v>80.0</v>
+        <v>16.0</v>
       </c>
       <c r="L78" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M78" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N78" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="O78" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="P78" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="Q78" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="R78" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="S78" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="T78" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="U78" t="n">
         <v>3.0</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="W78" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="X78" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="n">
         <v>0.0</v>
@@ -7645,64 +7642,64 @@
         <v>30</v>
       </c>
       <c r="E79" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F79" t="s">
         <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H79" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I79" t="n">
         <v>4.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K79" t="n">
         <v>16.0</v>
       </c>
       <c r="L79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U79" t="n">
         <v>3.0</v>
       </c>
       <c r="V79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y79" t="n">
         <v>0.0</v>
@@ -7728,64 +7725,64 @@
         <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F80" t="s">
         <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H80" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="I80" t="n">
         <v>4.0</v>
       </c>
       <c r="J80" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K80" t="n">
         <v>16.0</v>
       </c>
       <c r="L80" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M80" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U80" t="n">
         <v>3.0</v>
       </c>
       <c r="V80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y80" t="n">
         <v>0.0</v>
@@ -7799,76 +7796,76 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F81" t="s">
         <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H81" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="I81" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J81" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K81" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="L81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U81" t="n">
         <v>3.0</v>
       </c>
       <c r="V81" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="W81" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="X81" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y81" t="n">
         <v>0.0</v>
@@ -7882,76 +7879,76 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
         <v>69</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>70</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>71</v>
       </c>
-      <c r="D82" t="s">
-        <v>72</v>
-      </c>
       <c r="E82" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F82" t="s">
         <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H82" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="I82" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J82" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K82" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="L82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U82" t="n">
         <v>3.0</v>
       </c>
       <c r="V82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y82" t="n">
         <v>0.0</v>
@@ -7965,73 +7962,73 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>70</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>71</v>
       </c>
-      <c r="D83" t="s">
-        <v>72</v>
-      </c>
       <c r="E83" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F83" t="s">
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H83" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="I83" t="n">
         <v>4.0</v>
       </c>
       <c r="J83" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K83" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="L83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U83" t="n">
         <v>3.0</v>
       </c>
       <c r="V83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X83" t="s">
         <v>352</v>
@@ -8048,16 +8045,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E84" t="n">
         <v>2.0</v>
@@ -8066,58 +8063,58 @@
         <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H84" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I84" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J84" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K84" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L84" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M84" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N84" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="O84" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="Q84" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="R84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S84" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="T84" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="U84" t="n">
         <v>3.0</v>
       </c>
       <c r="V84" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="W84" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="X84" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Y84" t="n">
         <v>0.0</v>
@@ -8143,61 +8140,61 @@
         <v>30</v>
       </c>
       <c r="E85" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F85" t="s">
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H85" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J85" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="L85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U85" t="n">
         <v>3.0</v>
       </c>
       <c r="V85" t="s">
+        <v>354</v>
+      </c>
+      <c r="W85" t="s">
         <v>355</v>
-      </c>
-      <c r="W85" t="s">
-        <v>356</v>
       </c>
       <c r="X85" t="s">
         <v>357</v>
@@ -8226,64 +8223,64 @@
         <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F86" t="s">
         <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H86" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="I86" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K86" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="L86" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M86" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U86" t="n">
         <v>3.0</v>
       </c>
       <c r="V86" t="s">
+        <v>354</v>
+      </c>
+      <c r="W86" t="s">
         <v>355</v>
       </c>
-      <c r="W86" t="s">
-        <v>356</v>
-      </c>
       <c r="X86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y86" t="n">
         <v>0.0</v>
@@ -8315,10 +8312,10 @@
         <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I87" t="n">
         <v>4.0</v>
@@ -8330,43 +8327,43 @@
         <v>16.0</v>
       </c>
       <c r="L87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U87" t="n">
         <v>3.0</v>
       </c>
       <c r="V87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W87" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="X87" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y87" t="n">
         <v>0.0</v>
@@ -8392,61 +8389,61 @@
         <v>30</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F88" t="s">
         <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H88" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="I88" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J88" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K88" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="L88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U88" t="n">
         <v>3.0</v>
       </c>
       <c r="V88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X88" t="s">
         <v>363</v>
@@ -8458,89 +8455,6 @@
         <v>0.0</v>
       </c>
       <c r="AA88" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>45</v>
-      </c>
-      <c r="G89" t="s">
-        <v>322</v>
-      </c>
-      <c r="H89" t="s">
-        <v>344</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L89" t="s">
-        <v>361</v>
-      </c>
-      <c r="M89" t="s">
-        <v>361</v>
-      </c>
-      <c r="N89" t="s">
-        <v>150</v>
-      </c>
-      <c r="O89" t="s">
-        <v>150</v>
-      </c>
-      <c r="P89" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>150</v>
-      </c>
-      <c r="R89" t="s">
-        <v>250</v>
-      </c>
-      <c r="S89" t="s">
-        <v>150</v>
-      </c>
-      <c r="T89" t="s">
-        <v>118</v>
-      </c>
-      <c r="U89" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V89" t="s">
-        <v>355</v>
-      </c>
-      <c r="W89" t="s">
-        <v>362</v>
-      </c>
-      <c r="X89" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA89" t="n">
         <v>3.0</v>
       </c>
     </row>
